--- a/biology/Zoologie/Brève_iris/Brève_iris.xlsx
+++ b/biology/Zoologie/Brève_iris/Brève_iris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pitta iris
 La Brève iris ou Brève arc-en-ciel (Pitta iris) est une espèce de passereaux de la famille des Pittidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau avec la tête et les dessous d'un noir velouté, le dos vert, les épaules bleu pâle et la queue vert olive. Il a un bec noir, les pattes roses, les yeux brun et une strie rouge brun de chaque côté de sa couronne. Les deux sexes sont semblables, la femelle étant légèrement plus petite et plus terne que le mâle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique australienne, il vit dans les forêts du nord de l'Australie. Comme les autres Pitta, c'est un oiseau discret et timide.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire se compose principalement d'insectes, d'arthropodes et de petits animaux.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond de trois à quatre œufs couleur crème avec des taches dans un nid en forme de grand dôme.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Localement commun dans toute son aire de répartition limitée, il est considéré comme préoccupation mineure sur la Liste rouge de l'UICN des espèces menacées.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_iris</t>
+          <t>Brève_iris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deuxt sous-espèces :
 Pitta iris iris Gould 1842 ;
